--- a/401kOptions.xlsx
+++ b/401kOptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsp/Desktop/marketStudies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsatterthwaite/Learning/marketModeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA3666A-C4E7-6B4B-B2DB-9B6ACCD6C3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597FF3D4-49B0-D04B-ADB6-C5F81D4DDC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83200" yWindow="-5200" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-53460" yWindow="460" windowWidth="23620" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -763,7 +763,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -796,24 +796,24 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>2685</v>
+        <v>2846</v>
       </c>
       <c r="C2">
-        <v>2730</v>
+        <v>2839</v>
       </c>
       <c r="D2">
-        <v>4435</v>
+        <v>4170</v>
       </c>
       <c r="E2" s="6">
         <f>SUM(B2:D2)</f>
-        <v>9850</v>
+        <v>9855</v>
       </c>
       <c r="F2" s="7">
         <f>LOG(6)*B2+LOG(4)*C2+LOG(2)*D2</f>
-        <v>5068.0279143751768</v>
+        <v>5179.1618558907367</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -821,24 +821,24 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>1271</v>
+        <v>1280</v>
       </c>
       <c r="C3">
-        <v>1131</v>
+        <v>1016</v>
       </c>
       <c r="D3">
-        <v>9789</v>
+        <v>8483</v>
       </c>
       <c r="E3" s="6">
         <f>SUM(B3:D3)</f>
-        <v>12191</v>
+        <v>10779</v>
       </c>
       <c r="F3" s="7">
         <f>LOG(6)*B3+LOG(4)*C3+LOG(2)*D3</f>
-        <v>4616.7427169842485</v>
+        <v>4161.3640048978259</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -846,90 +846,90 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>1604</v>
+        <v>1650</v>
       </c>
       <c r="C4">
-        <v>1311</v>
+        <v>1355</v>
       </c>
       <c r="D4">
-        <v>6449</v>
+        <v>6188</v>
       </c>
       <c r="E4" s="6">
         <f>SUM(B4:D4)</f>
-        <v>9364</v>
+        <v>9193</v>
       </c>
       <c r="F4" s="7">
         <f>LOG(6)*B4+LOG(4)*C4+LOG(2)*D4</f>
-        <v>3978.7976962833377</v>
+        <v>3962.5144645511168</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>1535</v>
+        <v>1762</v>
       </c>
       <c r="C5">
-        <v>1616</v>
+        <v>1866</v>
       </c>
       <c r="D5">
-        <v>5020</v>
+        <v>4071</v>
       </c>
       <c r="E5" s="6">
         <f>SUM(B5:D5)</f>
-        <v>8171</v>
+        <v>7699</v>
       </c>
       <c r="F5" s="7">
         <f>LOG(6)*B5+LOG(4)*C5+LOG(2)*D5</f>
-        <v>3678.5616935580656</v>
+        <v>3720.0395593420253</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>1714</v>
+        <v>1792</v>
       </c>
       <c r="C6">
-        <v>1799</v>
+        <v>1558</v>
       </c>
       <c r="D6">
-        <v>4021</v>
+        <v>4558</v>
       </c>
       <c r="E6" s="6">
         <f>SUM(B6:D6)</f>
-        <v>7534</v>
+        <v>7908</v>
       </c>
       <c r="F6" s="7">
         <f>LOG(6)*B6+LOG(4)*C6+LOG(2)*D6</f>
-        <v>3627.2987801214376</v>
+        <v>3704.551227412881</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B7">
-        <v>1717</v>
+        <v>1558</v>
       </c>
       <c r="C7">
-        <v>1473</v>
+        <v>1645</v>
       </c>
       <c r="D7">
-        <v>4449</v>
+        <v>4966</v>
       </c>
       <c r="E7" s="6">
         <f>SUM(B7:D7)</f>
-        <v>7639</v>
+        <v>8169</v>
       </c>
       <c r="F7" s="7">
         <f>LOG(6)*B7+LOG(4)*C7+LOG(2)*D7</f>
-        <v>3562.202514843857</v>
+        <v>3697.6632922995459</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -937,21 +937,21 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>1727</v>
+        <v>1808</v>
       </c>
       <c r="C8">
-        <v>1784</v>
+        <v>1866</v>
       </c>
       <c r="D8">
-        <v>3707</v>
+        <v>3816</v>
       </c>
       <c r="E8" s="6">
         <f>SUM(B8:D8)</f>
-        <v>7218</v>
+        <v>7490</v>
       </c>
       <c r="F8" s="7">
         <f>LOG(6)*B8+LOG(4)*C8+LOG(2)*D8</f>
-        <v>3533.8604278680159</v>
+        <v>3679.0718679653578</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -959,21 +959,21 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>1313</v>
+        <v>1343</v>
       </c>
       <c r="C9">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="D9">
-        <v>5062</v>
+        <v>4956</v>
       </c>
       <c r="E9" s="6">
         <f>SUM(B9:D9)</f>
-        <v>7616</v>
+        <v>7533</v>
       </c>
       <c r="F9" s="7">
         <f>LOG(6)*B9+LOG(4)*C9+LOG(2)*D9</f>
-        <v>3292.682879042798</v>
+        <v>3279.9038170746298</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -981,26 +981,26 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>1445</v>
+        <v>1401</v>
       </c>
       <c r="C10">
-        <v>1079</v>
+        <v>1167</v>
       </c>
       <c r="D10">
-        <v>4815</v>
+        <v>3735</v>
       </c>
       <c r="E10" s="6">
         <f>SUM(B10:D10)</f>
-        <v>7339</v>
+        <v>6303</v>
       </c>
       <c r="F10" s="7">
         <f>LOG(6)*B10+LOG(4)*C10+LOG(2)*D10</f>
-        <v>3223.5107165693062</v>
+        <v>2917.1409454721866</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
-    <sortCondition descending="1" ref="F4:F10"/>
+    <sortCondition descending="1" ref="F2:F10"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/401kOptions.xlsx
+++ b/401kOptions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsatterthwaite/Learning/marketModeling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/marketModeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597FF3D4-49B0-D04B-ADB6-C5F81D4DDC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C008669-EF88-1841-93CD-9641C483D72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-53460" yWindow="460" windowWidth="23620" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28320" yWindow="500" windowWidth="26720" windowHeight="24700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,6 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -763,7 +755,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -796,24 +788,24 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>2846</v>
+        <v>2791</v>
       </c>
       <c r="C2">
-        <v>2839</v>
+        <v>2914</v>
       </c>
       <c r="D2">
-        <v>4170</v>
+        <v>3283</v>
       </c>
       <c r="E2" s="6">
         <f>SUM(B2:D2)</f>
-        <v>9855</v>
+        <v>8988</v>
       </c>
       <c r="F2" s="7">
         <f>LOG(6)*B2+LOG(4)*C2+LOG(2)*D2</f>
-        <v>5179.1618558907367</v>
+        <v>4914.5044303152818</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -821,71 +813,71 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>1280</v>
+        <v>1143</v>
       </c>
       <c r="C3">
-        <v>1016</v>
+        <v>858</v>
       </c>
       <c r="D3">
-        <v>8483</v>
+        <v>7713</v>
       </c>
       <c r="E3" s="6">
         <f>SUM(B3:D3)</f>
-        <v>10779</v>
+        <v>9714</v>
       </c>
       <c r="F3" s="7">
         <f>LOG(6)*B3+LOG(4)*C3+LOG(2)*D3</f>
-        <v>4161.3640048978259</v>
+        <v>3727.8387083041835</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>1650</v>
+        <v>1732</v>
       </c>
       <c r="C4">
-        <v>1355</v>
+        <v>1815</v>
       </c>
       <c r="D4">
-        <v>6188</v>
+        <v>3635</v>
       </c>
       <c r="E4" s="6">
         <f>SUM(B4:D4)</f>
-        <v>9193</v>
+        <v>7182</v>
       </c>
       <c r="F4" s="7">
         <f>LOG(6)*B4+LOG(4)*C4+LOG(2)*D4</f>
-        <v>3962.5144645511168</v>
+        <v>3534.7408841632941</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1762</v>
+        <v>1757</v>
       </c>
       <c r="C5">
-        <v>1866</v>
+        <v>1828</v>
       </c>
       <c r="D5">
-        <v>4071</v>
+        <v>3440</v>
       </c>
       <c r="E5" s="6">
         <f>SUM(B5:D5)</f>
-        <v>7699</v>
+        <v>7025</v>
       </c>
       <c r="F5" s="7">
         <f>LOG(6)*B5+LOG(4)*C5+LOG(2)*D5</f>
-        <v>3720.0395593420253</v>
+        <v>3503.3205961556723</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -893,21 +885,21 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1792</v>
+        <v>1687</v>
       </c>
       <c r="C6">
-        <v>1558</v>
+        <v>1564</v>
       </c>
       <c r="D6">
-        <v>4558</v>
+        <v>4128</v>
       </c>
       <c r="E6" s="6">
         <f>SUM(B6:D6)</f>
-        <v>7908</v>
+        <v>7379</v>
       </c>
       <c r="F6" s="7">
         <f>LOG(6)*B6+LOG(4)*C6+LOG(2)*D6</f>
-        <v>3704.551227412881</v>
+        <v>3497.0148079350547</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -915,43 +907,43 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>1558</v>
+        <v>1473</v>
       </c>
       <c r="C7">
-        <v>1645</v>
+        <v>1579</v>
       </c>
       <c r="D7">
-        <v>4966</v>
+        <v>4250</v>
       </c>
       <c r="E7" s="6">
         <f>SUM(B7:D7)</f>
-        <v>8169</v>
+        <v>7302</v>
       </c>
       <c r="F7" s="7">
         <f>LOG(6)*B7+LOG(4)*C7+LOG(2)*D7</f>
-        <v>3697.6632922995459</v>
+        <v>3376.2469996938798</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>1808</v>
+        <v>1431</v>
       </c>
       <c r="C8">
-        <v>1866</v>
+        <v>1153</v>
       </c>
       <c r="D8">
-        <v>3816</v>
+        <v>5183</v>
       </c>
       <c r="E8" s="6">
         <f>SUM(B8:D8)</f>
-        <v>7490</v>
+        <v>7767</v>
       </c>
       <c r="F8" s="7">
         <f>LOG(6)*B8+LOG(4)*C8+LOG(2)*D8</f>
-        <v>3679.0718679653578</v>
+        <v>3367.9480768265494</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -959,21 +951,21 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C9">
-        <v>1234</v>
+        <v>1264</v>
       </c>
       <c r="D9">
-        <v>4956</v>
+        <v>4699</v>
       </c>
       <c r="E9" s="6">
         <f>SUM(B9:D9)</f>
-        <v>7533</v>
+        <v>7305</v>
       </c>
       <c r="F9" s="7">
         <f>LOG(6)*B9+LOG(4)*C9+LOG(2)*D9</f>
-        <v>3279.9038170746298</v>
+        <v>3219.8227566784417</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -981,26 +973,26 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>1401</v>
+        <v>1135</v>
       </c>
       <c r="C10">
-        <v>1167</v>
+        <v>835</v>
       </c>
       <c r="D10">
-        <v>3735</v>
+        <v>1849</v>
       </c>
       <c r="E10" s="6">
         <f>SUM(B10:D10)</f>
-        <v>6303</v>
+        <v>3819</v>
       </c>
       <c r="F10" s="7">
         <f>LOG(6)*B10+LOG(4)*C10+LOG(2)*D10</f>
-        <v>2917.1409454721866</v>
+        <v>1942.5262239269853</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
-    <sortCondition descending="1" ref="F2:F10"/>
+    <sortCondition descending="1" ref="F4:F10"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/401kOptions.xlsx
+++ b/401kOptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/marketModeling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/marketModeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C008669-EF88-1841-93CD-9641C483D72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE64221-369D-9F45-AE77-DF758DEC658B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28320" yWindow="500" windowWidth="26720" windowHeight="24700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4600" yWindow="2440" windowWidth="26720" windowHeight="24700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,15 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -755,7 +764,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -788,24 +797,24 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>2791</v>
+        <v>2699</v>
       </c>
       <c r="C2">
-        <v>2914</v>
+        <v>2486</v>
       </c>
       <c r="D2">
-        <v>3283</v>
+        <v>2236</v>
       </c>
       <c r="E2" s="6">
         <f>SUM(B2:D2)</f>
-        <v>8988</v>
+        <v>7421</v>
       </c>
       <c r="F2" s="7">
         <f>LOG(6)*B2+LOG(4)*C2+LOG(2)*D2</f>
-        <v>4914.5044303152818</v>
+        <v>4270.0544335314307</v>
       </c>
       <c r="G2">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -813,49 +822,49 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>1143</v>
+        <v>1079</v>
       </c>
       <c r="C3">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="D3">
-        <v>7713</v>
+        <v>7957</v>
       </c>
       <c r="E3" s="6">
         <f>SUM(B3:D3)</f>
-        <v>9714</v>
+        <v>9879</v>
       </c>
       <c r="F3" s="7">
         <f>LOG(6)*B3+LOG(4)*C3+LOG(2)*D3</f>
-        <v>3727.8387083041835</v>
+        <v>3742.4574473517223</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>1732</v>
+        <v>1638</v>
       </c>
       <c r="C4">
-        <v>1815</v>
+        <v>1384</v>
       </c>
       <c r="D4">
-        <v>3635</v>
+        <v>3725</v>
       </c>
       <c r="E4" s="6">
         <f>SUM(B4:D4)</f>
-        <v>7182</v>
+        <v>6747</v>
       </c>
       <c r="F4" s="7">
         <f>LOG(6)*B4+LOG(4)*C4+LOG(2)*D4</f>
-        <v>3534.7408841632941</v>
+        <v>3229.1995099746382</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -863,87 +872,87 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1757</v>
+        <v>1733</v>
       </c>
       <c r="C5">
-        <v>1828</v>
+        <v>1623</v>
       </c>
       <c r="D5">
-        <v>3440</v>
+        <v>2883</v>
       </c>
       <c r="E5" s="6">
         <f>SUM(B5:D5)</f>
-        <v>7025</v>
+        <v>6239</v>
       </c>
       <c r="F5" s="7">
         <f>LOG(6)*B5+LOG(4)*C5+LOG(2)*D5</f>
-        <v>3503.3205961556723</v>
+        <v>3193.5489603393949</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>1687</v>
       </c>
       <c r="C6">
-        <v>1564</v>
+        <v>1599</v>
       </c>
       <c r="D6">
-        <v>4128</v>
+        <v>2993</v>
       </c>
       <c r="E6" s="6">
         <f>SUM(B6:D6)</f>
-        <v>7379</v>
+        <v>6279</v>
       </c>
       <c r="F6" s="7">
         <f>LOG(6)*B6+LOG(4)*C6+LOG(2)*D6</f>
-        <v>3497.0148079350547</v>
+        <v>3176.4178625529139</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>1473</v>
+        <v>1350</v>
       </c>
       <c r="C7">
-        <v>1579</v>
+        <v>1057</v>
       </c>
       <c r="D7">
-        <v>4250</v>
+        <v>4761</v>
       </c>
       <c r="E7" s="6">
         <f>SUM(B7:D7)</f>
-        <v>7302</v>
+        <v>7168</v>
       </c>
       <c r="F7" s="7">
         <f>LOG(6)*B7+LOG(4)*C7+LOG(2)*D7</f>
-        <v>3376.2469996938798</v>
+        <v>3120.0854082077894</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="C8">
-        <v>1153</v>
+        <v>1422</v>
       </c>
       <c r="D8">
-        <v>5183</v>
+        <v>3806</v>
       </c>
       <c r="E8" s="6">
         <f>SUM(B8:D8)</f>
-        <v>7767</v>
+        <v>6663</v>
       </c>
       <c r="F8" s="7">
         <f>LOG(6)*B8+LOG(4)*C8+LOG(2)*D8</f>
-        <v>3367.9480768265494</v>
+        <v>3118.496515466004</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -951,21 +960,21 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>1342</v>
+        <v>1159</v>
       </c>
       <c r="C9">
-        <v>1264</v>
+        <v>1039</v>
       </c>
       <c r="D9">
-        <v>4699</v>
+        <v>3797</v>
       </c>
       <c r="E9" s="6">
         <f>SUM(B9:D9)</f>
-        <v>7305</v>
+        <v>5995</v>
       </c>
       <c r="F9" s="7">
         <f>LOG(6)*B9+LOG(4)*C9+LOG(2)*D9</f>
-        <v>3219.8227566784417</v>
+        <v>2670.4285237205322</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -973,26 +982,26 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>1135</v>
+        <v>996</v>
       </c>
       <c r="C10">
-        <v>835</v>
+        <v>936</v>
       </c>
       <c r="D10">
-        <v>1849</v>
+        <v>1521</v>
       </c>
       <c r="E10" s="6">
         <f>SUM(B10:D10)</f>
-        <v>3819</v>
+        <v>3453</v>
       </c>
       <c r="F10" s="7">
         <f>LOG(6)*B10+LOG(4)*C10+LOG(2)*D10</f>
-        <v>1942.5262239269853</v>
+        <v>1796.4334206699971</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
-    <sortCondition descending="1" ref="F4:F10"/>
+    <sortCondition descending="1" ref="F2:F10"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/401kOptions.xlsx
+++ b/401kOptions.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/marketModeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE64221-369D-9F45-AE77-DF758DEC658B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B23709-E175-B34D-AEE9-24BADFD87323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="2440" windowWidth="26720" windowHeight="24700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4300" yWindow="500" windowWidth="26720" windowHeight="24700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,17 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>5yr</t>
   </si>
   <si>
-    <t>3yr</t>
-  </si>
-  <si>
-    <t>1yr</t>
-  </si>
-  <si>
     <t>Option</t>
   </si>
   <si>
@@ -70,12 +64,6 @@
     <t>iSh Russell 2000 SmallCap Ind K</t>
   </si>
   <si>
-    <t>allEqual</t>
-  </si>
-  <si>
-    <t>weighted</t>
-  </si>
-  <si>
     <t>Prudential Total Return Bond</t>
   </si>
   <si>
@@ -98,9 +86,6 @@
   </si>
   <si>
     <t>iShRussell2k</t>
-  </si>
-  <si>
-    <t>InvescoDevelopingMarkets</t>
   </si>
   <si>
     <t>iShRussellMidCap Index K</t>
@@ -138,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,12 +148,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -296,15 +275,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -758,13 +735,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,236 +749,81 @@
     <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>2699</v>
-      </c>
-      <c r="C2">
-        <v>2486</v>
-      </c>
-      <c r="D2">
-        <v>2236</v>
-      </c>
-      <c r="E2" s="6">
-        <f>SUM(B2:D2)</f>
-        <v>7421</v>
-      </c>
-      <c r="F2" s="7">
-        <f>LOG(6)*B2+LOG(4)*C2+LOG(2)*D2</f>
-        <v>4270.0544335314307</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>1079</v>
-      </c>
-      <c r="C3">
-        <v>843</v>
-      </c>
-      <c r="D3">
-        <v>7957</v>
-      </c>
-      <c r="E3" s="6">
-        <f>SUM(B3:D3)</f>
-        <v>9879</v>
-      </c>
-      <c r="F3" s="7">
-        <f>LOG(6)*B3+LOG(4)*C3+LOG(2)*D3</f>
-        <v>3742.4574473517223</v>
-      </c>
-      <c r="G3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1638</v>
-      </c>
-      <c r="C4">
-        <v>1384</v>
-      </c>
-      <c r="D4">
-        <v>3725</v>
-      </c>
-      <c r="E4" s="6">
-        <f>SUM(B4:D4)</f>
-        <v>6747</v>
-      </c>
-      <c r="F4" s="7">
-        <f>LOG(6)*B4+LOG(4)*C4+LOG(2)*D4</f>
-        <v>3229.1995099746382</v>
-      </c>
-      <c r="G4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1733</v>
-      </c>
-      <c r="C5">
-        <v>1623</v>
-      </c>
-      <c r="D5">
-        <v>2883</v>
-      </c>
-      <c r="E5" s="6">
-        <f>SUM(B5:D5)</f>
-        <v>6239</v>
-      </c>
-      <c r="F5" s="7">
-        <f>LOG(6)*B5+LOG(4)*C5+LOG(2)*D5</f>
-        <v>3193.5489603393949</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1687</v>
-      </c>
-      <c r="C6">
-        <v>1599</v>
-      </c>
-      <c r="D6">
-        <v>2993</v>
-      </c>
-      <c r="E6" s="6">
-        <f>SUM(B6:D6)</f>
-        <v>6279</v>
-      </c>
-      <c r="F6" s="7">
-        <f>LOG(6)*B6+LOG(4)*C6+LOG(2)*D6</f>
-        <v>3176.4178625529139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>1350</v>
-      </c>
-      <c r="C7">
-        <v>1057</v>
-      </c>
-      <c r="D7">
-        <v>4761</v>
-      </c>
-      <c r="E7" s="6">
-        <f>SUM(B7:D7)</f>
-        <v>7168</v>
-      </c>
-      <c r="F7" s="7">
-        <f>LOG(6)*B7+LOG(4)*C7+LOG(2)*D7</f>
-        <v>3120.0854082077894</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B8">
-        <v>1435</v>
-      </c>
-      <c r="C8">
-        <v>1422</v>
-      </c>
-      <c r="D8">
-        <v>3806</v>
-      </c>
-      <c r="E8" s="6">
-        <f>SUM(B8:D8)</f>
-        <v>6663</v>
-      </c>
-      <c r="F8" s="7">
-        <f>LOG(6)*B8+LOG(4)*C8+LOG(2)*D8</f>
-        <v>3118.496515466004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>1159</v>
-      </c>
-      <c r="C9">
-        <v>1039</v>
-      </c>
-      <c r="D9">
-        <v>3797</v>
-      </c>
-      <c r="E9" s="6">
-        <f>SUM(B9:D9)</f>
-        <v>5995</v>
-      </c>
-      <c r="F9" s="7">
-        <f>LOG(6)*B9+LOG(4)*C9+LOG(2)*D9</f>
-        <v>2670.4285237205322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>996</v>
-      </c>
-      <c r="C10">
-        <v>936</v>
-      </c>
-      <c r="D10">
-        <v>1521</v>
-      </c>
-      <c r="E10" s="6">
-        <f>SUM(B10:D10)</f>
-        <v>3453</v>
-      </c>
-      <c r="F10" s="7">
-        <f>LOG(6)*B10+LOG(4)*C10+LOG(2)*D10</f>
-        <v>1796.4334206699971</v>
+        <v>2905</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
-    <sortCondition descending="1" ref="F2:F10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C9">
+    <sortCondition ref="B2:B9"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1031,25 +853,25 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>2093.46</v>
@@ -1083,7 +905,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>1205.23</v>
@@ -1117,7 +939,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>4788.8</v>
@@ -1151,7 +973,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3">
         <v>8.67</v>
@@ -1186,7 +1008,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3">
         <v>13487.2</v>
@@ -1220,7 +1042,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3">
         <v>2051</v>
